--- a/Data/Input/With_observations/Makis/Makis_observations.xlsx
+++ b/Data/Input/With_observations/Makis/Makis_observations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
   <si>
     <t>OM1</t>
   </si>
@@ -131,13 +131,28 @@
     <t>y</t>
   </si>
   <si>
-    <t>FIX_X</t>
-  </si>
-  <si>
-    <t>FIX_Y</t>
-  </si>
-  <si>
     <t>Point_object</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>sd_dh</t>
+  </si>
+  <si>
+    <t>d_dh</t>
+  </si>
+  <si>
+    <t>n_dh</t>
+  </si>
+  <si>
+    <t>FIX_2D</t>
+  </si>
+  <si>
+    <t>FIX_1D</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -973,19 +988,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -999,16 +1015,19 @@
         <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1021,17 +1040,14 @@
       <c r="D2">
         <v>4958773.1491</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1044,17 +1060,15 @@
       <c r="D3">
         <v>4958648.0877999999</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1067,17 +1081,15 @@
       <c r="D4">
         <v>4958601.9176000003</v>
       </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1090,17 +1102,15 @@
       <c r="D5">
         <v>4958639.8002000004</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1113,17 +1123,15 @@
       <c r="D6">
         <v>4958694.1792000001</v>
       </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1136,17 +1144,15 @@
       <c r="D7">
         <v>4958550.1788999997</v>
       </c>
-      <c r="E7" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1159,17 +1165,15 @@
       <c r="D8">
         <v>4958516.8267999999</v>
       </c>
-      <c r="E8" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1182,17 +1186,15 @@
       <c r="D9">
         <v>4958546.5434999997</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1205,17 +1207,15 @@
       <c r="D10">
         <v>4958624.9123999998</v>
       </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1228,17 +1228,15 @@
       <c r="D11">
         <v>4958655.2372000003</v>
       </c>
-      <c r="E11" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1251,17 +1249,15 @@
       <c r="D12">
         <v>4958737.4276000001</v>
       </c>
-      <c r="E12" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1274,17 +1270,15 @@
       <c r="D13">
         <v>4958767.2078999998</v>
       </c>
-      <c r="E13" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1297,17 +1291,15 @@
       <c r="D14">
         <v>4958738.6617000001</v>
       </c>
-      <c r="E14" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1320,17 +1312,15 @@
       <c r="D15">
         <v>4958800.9877000004</v>
       </c>
-      <c r="E15" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1343,17 +1333,15 @@
       <c r="D16">
         <v>4958899.6246999996</v>
       </c>
-      <c r="E16" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1366,17 +1354,15 @@
       <c r="D17">
         <v>4958954.5931000002</v>
       </c>
-      <c r="E17" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1389,17 +1375,15 @@
       <c r="D18">
         <v>4958954.9938000003</v>
       </c>
-      <c r="E18" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1412,17 +1396,15 @@
       <c r="D19">
         <v>4958941.3113000002</v>
       </c>
-      <c r="E19" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1435,17 +1417,15 @@
       <c r="D20">
         <v>4958929.8949999996</v>
       </c>
-      <c r="E20" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1458,17 +1438,15 @@
       <c r="D21">
         <v>4958921.6177000003</v>
       </c>
-      <c r="E21" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1481,13 +1459,11 @@
       <c r="D22">
         <v>4958895.0197999999</v>
       </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="b">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1498,15 +1474,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1538,16 +1514,28 @@
         <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1566,17 +1554,14 @@
       <c r="F2">
         <v>139.65889999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1595,17 +1580,14 @@
       <c r="F3">
         <v>175.9623</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1624,17 +1606,14 @@
       <c r="F4">
         <v>220.3656</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1653,17 +1632,14 @@
       <c r="F5">
         <v>220.36590000000001</v>
       </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1682,17 +1658,14 @@
       <c r="F6">
         <v>97.106300000000005</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1711,17 +1684,14 @@
       <c r="F7">
         <v>70.730900000000005</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>8</v>
       </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1740,17 +1710,14 @@
       <c r="F8">
         <v>63.9621</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1769,17 +1736,14 @@
       <c r="F9">
         <v>63.962600000000002</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>8</v>
       </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1798,17 +1762,14 @@
       <c r="F10">
         <v>53.857900000000001</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1827,17 +1788,14 @@
       <c r="F11">
         <v>94.109899999999996</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>6</v>
       </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1856,17 +1814,14 @@
       <c r="F12">
         <v>95.316599999999994</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1885,17 +1840,14 @@
       <c r="F13">
         <v>60.021500000000003</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>10</v>
       </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1914,17 +1866,14 @@
       <c r="F14">
         <v>53.8583</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>10</v>
       </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1943,17 +1892,14 @@
       <c r="F15">
         <v>61.580300000000001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>10</v>
       </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1972,14 +1918,11 @@
       <c r="F16">
         <v>96.022400000000005</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
       <c r="M16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2001,14 +1944,11 @@
       <c r="F17">
         <v>70.732399999999998</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>8</v>
       </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
       <c r="M17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2030,14 +1970,11 @@
       <c r="F18">
         <v>48.229100000000003</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>12</v>
       </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
       <c r="M18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2059,14 +1996,11 @@
       <c r="F19">
         <v>57.468400000000003</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>10</v>
       </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
       <c r="M19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2088,14 +2022,11 @@
       <c r="F20">
         <v>61.579799999999999</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>10</v>
       </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
       <c r="M20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2117,14 +2048,11 @@
       <c r="F21">
         <v>60.021700000000003</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>10</v>
       </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
       <c r="M21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2146,14 +2074,11 @@
       <c r="F22">
         <v>146.8691</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4</v>
       </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
       <c r="M22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2175,14 +2100,11 @@
       <c r="F23">
         <v>45.814799999999998</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>13</v>
       </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
       <c r="M23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2204,14 +2126,11 @@
       <c r="F24">
         <v>35.630800000000001</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>18</v>
       </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
       <c r="M24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2233,14 +2152,11 @@
       <c r="F25">
         <v>35.630899999999997</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>18</v>
       </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
       <c r="M25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2262,14 +2178,11 @@
       <c r="F26">
         <v>95.316800000000001</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>6</v>
       </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
       <c r="M26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2291,14 +2204,11 @@
       <c r="F27">
         <v>44.514800000000001</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>12</v>
       </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
       <c r="M27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2320,14 +2230,11 @@
       <c r="F28">
         <v>45.812100000000001</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>12</v>
       </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
       <c r="M28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2349,14 +2256,11 @@
       <c r="F29">
         <v>94.106700000000004</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>6</v>
       </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
       <c r="M29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2378,14 +2282,11 @@
       <c r="F30">
         <v>112.5757</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
       <c r="M30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2407,14 +2308,11 @@
       <c r="F31">
         <v>44.513800000000003</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>12</v>
       </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
       <c r="M31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2436,14 +2334,11 @@
       <c r="F32">
         <v>112.5765</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>5</v>
       </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
       <c r="M32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2465,14 +2360,11 @@
       <c r="F33">
         <v>38.584499999999998</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>12</v>
       </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
       <c r="M33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2494,14 +2386,11 @@
       <c r="F34">
         <v>38.582900000000002</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>12</v>
       </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
       <c r="M34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2523,14 +2412,11 @@
       <c r="F35">
         <v>96.021100000000004</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>6</v>
       </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
       <c r="M35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2552,14 +2438,11 @@
       <c r="F36">
         <v>118.82980000000001</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>5</v>
       </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
       <c r="M36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2581,14 +2464,11 @@
       <c r="F37">
         <v>146.91569999999999</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>4</v>
       </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
       <c r="M37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2610,14 +2490,11 @@
       <c r="F38">
         <v>118.83199999999999</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>5</v>
       </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
       <c r="M38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2639,14 +2516,11 @@
       <c r="F39">
         <v>57.4681</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>10</v>
       </c>
-      <c r="L39">
-        <v>3</v>
-      </c>
       <c r="M39">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2668,14 +2542,11 @@
       <c r="F40">
         <v>39.779600000000002</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>12</v>
       </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
       <c r="M40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2697,14 +2568,11 @@
       <c r="F41">
         <v>92.639499999999998</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>8</v>
       </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
       <c r="M41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2726,14 +2594,11 @@
       <c r="F42">
         <v>39.781100000000002</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>12</v>
       </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
       <c r="M42">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,14 +2620,8 @@
       <c r="F43">
         <v>41.484999999999999</v>
       </c>
-      <c r="K43">
-        <v>15</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
       <c r="M43">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2784,14 +2643,11 @@
       <c r="F44">
         <v>181.5609</v>
       </c>
-      <c r="K44">
-        <v>3</v>
-      </c>
       <c r="L44">
         <v>3</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2813,14 +2669,11 @@
       <c r="F45">
         <v>99.667000000000002</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>7</v>
       </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
       <c r="M45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2842,14 +2695,11 @@
       <c r="F46">
         <v>48.229199999999999</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>12</v>
       </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
       <c r="M46">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2871,14 +2721,11 @@
       <c r="F47">
         <v>97.105699999999999</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>6</v>
       </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
       <c r="M47">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,14 +2747,11 @@
       <c r="F48">
         <v>41.483699999999999</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>15</v>
       </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
       <c r="M48">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2929,14 +2773,11 @@
       <c r="F49">
         <v>92.638499999999993</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>8</v>
       </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
       <c r="M49">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2958,14 +2799,11 @@
       <c r="F50">
         <v>99.667599999999993</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>7</v>
       </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
       <c r="M50">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2987,14 +2825,11 @@
       <c r="F51">
         <v>223.88980000000001</v>
       </c>
-      <c r="K51">
-        <v>3</v>
-      </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3016,14 +2851,11 @@
       <c r="F52">
         <v>146.9134</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>4</v>
       </c>
-      <c r="L52">
-        <v>3</v>
-      </c>
       <c r="M52">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3045,14 +2877,11 @@
       <c r="F53">
         <v>175.96119999999999</v>
       </c>
-      <c r="K53">
-        <v>3</v>
-      </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3074,14 +2903,11 @@
       <c r="F54">
         <v>77.8249</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>7</v>
       </c>
-      <c r="L54">
-        <v>3</v>
-      </c>
       <c r="M54">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3103,14 +2929,11 @@
       <c r="F55">
         <v>181.56110000000001</v>
       </c>
-      <c r="K55">
-        <v>3</v>
-      </c>
       <c r="L55">
         <v>3</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3132,14 +2955,11 @@
       <c r="F56">
         <v>223.89019999999999</v>
       </c>
-      <c r="K56">
-        <v>3</v>
-      </c>
       <c r="L56">
         <v>3</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3161,14 +2981,11 @@
       <c r="F57">
         <v>77.824200000000005</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>7</v>
       </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
       <c r="M57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3190,14 +3007,11 @@
       <c r="F58">
         <v>108.40819999999999</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>5</v>
       </c>
-      <c r="L58">
-        <v>3</v>
-      </c>
       <c r="M58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3219,14 +3033,11 @@
       <c r="F59">
         <v>108.40689999999999</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>5</v>
       </c>
-      <c r="L59">
-        <v>3</v>
-      </c>
       <c r="M59">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3248,14 +3059,11 @@
       <c r="F60">
         <v>35.886099999999999</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>15</v>
       </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
       <c r="M60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3277,14 +3085,11 @@
       <c r="F61">
         <v>83.126300000000001</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>8</v>
       </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
       <c r="M61">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3306,14 +3111,11 @@
       <c r="F62">
         <v>44.219799999999999</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>15</v>
       </c>
-      <c r="L62">
-        <v>3</v>
-      </c>
       <c r="M62">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3335,14 +3137,11 @@
       <c r="F63">
         <v>44.2196</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>12</v>
       </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
       <c r="M63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3364,14 +3163,11 @@
       <c r="F64">
         <v>19.984400000000001</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>30</v>
       </c>
-      <c r="L64">
-        <v>3</v>
-      </c>
       <c r="M64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3393,14 +3189,11 @@
       <c r="F65">
         <v>19.983499999999999</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>30</v>
       </c>
-      <c r="L65">
-        <v>3</v>
-      </c>
       <c r="M65">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3422,14 +3215,11 @@
       <c r="F66">
         <v>35.886400000000002</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>15</v>
       </c>
-      <c r="L66">
-        <v>3</v>
-      </c>
       <c r="M66">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3451,14 +3241,11 @@
       <c r="F67">
         <v>51.1648</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>7</v>
       </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
       <c r="M67">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3480,14 +3267,11 @@
       <c r="F68">
         <v>39.364600000000003</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>15</v>
       </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
       <c r="M68">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3509,14 +3293,11 @@
       <c r="F69">
         <v>66.650000000000006</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>8</v>
       </c>
-      <c r="L69">
-        <v>3</v>
-      </c>
       <c r="M69">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3538,14 +3319,11 @@
       <c r="F70">
         <v>66.649699999999996</v>
       </c>
-      <c r="K70">
-        <v>3</v>
-      </c>
       <c r="L70">
         <v>3</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3567,14 +3345,11 @@
       <c r="F71">
         <v>139.66050000000001</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>4</v>
       </c>
-      <c r="L71">
-        <v>3</v>
-      </c>
       <c r="M71">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/With_observations/Makis/Makis_observations.xlsx
+++ b/Data/Input/With_observations/Makis/Makis_observations.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Makis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
   <si>
     <t>OM1</t>
   </si>
@@ -153,12 +158,24 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
+  </si>
+  <si>
+    <t>e_air</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,6 +714,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -744,7 +764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -779,7 +799,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1474,15 +1494,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1534,8 +1560,20 @@
       <c r="Q1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1691,7 +1729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1743,7 +1781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1795,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1821,7 +1859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1847,7 +1885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1873,7 +1911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>

--- a/Data/Input/With_observations/Makis/Makis_observations.xlsx
+++ b/Data/Input/With_observations/Makis/Makis_observations.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
     <sheet name="Observations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
   <si>
     <t>OM1</t>
   </si>
@@ -153,12 +153,27 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
+  </si>
+  <si>
+    <t>e_air</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,7 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,6 +661,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -990,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1057,7 @@
         <v>4958773.1491</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1061,7 +1077,7 @@
         <v>4958648.0877999999</v>
       </c>
       <c r="F3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="b">
@@ -1099,7 +1115,7 @@
       <c r="C5">
         <v>7450857.1968</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>4958639.8002000004</v>
       </c>
       <c r="F5" s="2" t="b">
@@ -1474,15 +1490,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54:P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1534,8 +1550,20 @@
       <c r="Q1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1691,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1743,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1795,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1821,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1847,7 +1875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1873,7 +1901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +1927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2620,6 +2648,9 @@
       <c r="F43">
         <v>41.484999999999999</v>
       </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
       <c r="M43">
         <v>3</v>
       </c>
@@ -3282,7 +3313,7 @@
         <v>20</v>
       </c>
       <c r="C69">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D69">
         <v>30</v>

--- a/Data/Input/With_observations/Makis/Makis_observations.xlsx
+++ b/Data/Input/With_observations/Makis/Makis_observations.xlsx
@@ -1496,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,6 +2658,9 @@
       <c r="F43">
         <v>41.484999999999999</v>
       </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
       <c r="M43">
         <v>3</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>20</v>
       </c>
       <c r="C69">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D69">
         <v>30</v>
